--- a/frontend/public/MASTER_DATA_ADAIKAL.xlsx
+++ b/frontend/public/MASTER_DATA_ADAIKAL.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3129913C-36B7-4E6F-9C01-B7809A24D007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE37432-A940-4585-ABF1-5C5DB2A12338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LF_MASTER" sheetId="4" r:id="rId1"/>
     <sheet name="AMX_MASTER" sheetId="2" r:id="rId2"/>
     <sheet name="SWITCH_MASTER" sheetId="3" r:id="rId3"/>
+    <sheet name="M_and_C" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AMX_MASTER!$A$1:$E$2542</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LF_MASTER!$A$1:$E$578</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">M_and_C!$A$1:$B$259</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SWITCH_MASTER!$A$1:$E$187</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16535" uniqueCount="9965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16795" uniqueCount="9974">
   <si>
     <t>Fleet Number</t>
   </si>
@@ -29917,6 +29919,33 @@
   </si>
   <si>
     <t>864977043719461</t>
+  </si>
+  <si>
+    <t>THIRUMANGALAM</t>
+  </si>
+  <si>
+    <t>OPR -1</t>
+  </si>
+  <si>
+    <t>SULUR</t>
+  </si>
+  <si>
+    <t>HEAD OFFICE</t>
+  </si>
+  <si>
+    <t>KARUMATHAMPATTI</t>
+  </si>
+  <si>
+    <t>ANNUR</t>
+  </si>
+  <si>
+    <t>SUNGAM-2</t>
+  </si>
+  <si>
+    <t>SUNGAM-1</t>
+  </si>
+  <si>
+    <t>MMI</t>
   </si>
 </sst>
 </file>
@@ -29957,9 +29986,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -30313,7 +30348,7 @@
   <dimension ref="A1:E578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E578"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -83409,8 +83444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17602306-DFEA-4E19-B11D-2EAE3E53EA4C}">
   <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -86609,4 +86644,2097 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0649DA5-E91A-4B5B-ABDD-B3335EBE8B6D}">
+  <dimension ref="A1:B259"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2901</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9965</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>3801</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3822</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3691</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3865</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>3711</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3862</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9970</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>3819</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9970</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>3801</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>3801</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>3850</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>3850</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>3828</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>3883</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>3884</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>3841</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>3881</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>3823</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>3801</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>3803</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>3884</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>3798</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>3724</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>3732</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>3775</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>3731</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>3845</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>3778</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>3831</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>3786</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>3807</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>9970</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>3756</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>3826</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>3691</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>3859</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>3791</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>3875</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>3971</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>3859</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>3875</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>3791</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>3971</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>3858</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>3863</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>3879</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>3867</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>3857</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>3801</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>3787</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>3850</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>3881</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>3841</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>3883</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>3823</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>3844</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>3865</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>3828</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>3829</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>3811</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>3794</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>3846</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>3882</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>3803</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>3866</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>3884</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>3801</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>3848</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>3830</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>3832</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>3826</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>3827</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>9973</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>3812</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>9973</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>3801</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>3855</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>3826</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>3756</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>3688</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>3778</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>3875</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>3804</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>3799</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>9970</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>3883</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>3881</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>3850</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>3850</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>3828</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>3841</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>3828</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>3844</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>3839</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>9973</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>3866</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>3803</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>3756</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>3772</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>3875</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>3784</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>3881</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>70</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>9973</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>3866</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>3803</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>3744</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>3830</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>3775</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>3775</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>3717</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>3688</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>3688</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>3722</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>3741</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>3804</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>3722</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>3799</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>9970</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>3883</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>3881</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>3850</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>3828</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>3841</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>3841</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>3883</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>3870</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>9973</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>3819</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>9970</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>3866</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>3801</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>3845</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>9973</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>3787</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>3849</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>9973</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>3799</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>9970</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>3840</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>9970</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>3862</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>9970</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>3875</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>3875</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>3881</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>3883</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>3691</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>3691</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>3830</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>3744</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>3830</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>3830</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>3756</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>3813</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>9973</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>3744</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>3883</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>3841</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>3804</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>3894</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>3894</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>3894</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>3732</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>3772</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>3775</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>3717</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>3721</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>3788</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>9970</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>3721</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>3721</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>3840</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>3850</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>3744</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>3690</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>3862</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>9970</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>3885</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>9970</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>3875</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>3875</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>3791</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>3812</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>9973</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>3883</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>3756</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>3804</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>3804</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>3690</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>3744</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>3691</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>3821</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>9973</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>3803</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>9973</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>3865</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>3866</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>3799</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>9970</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>3799</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>9970</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>3875</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>3690</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>3744</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>3820</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>3866</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>3801</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>3801</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>3803</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>3690</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>3830</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>3847</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <v>3744</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>3821</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <v>3803</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>3794</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>3866</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>3756</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>3688</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <v>3690</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>3799</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>9970</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>3866</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>3866</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>3803</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>3756</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>3873</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
+        <v>3788</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>9970</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <v>3862</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>9970</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <v>3864</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>9970</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <v>3841</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <v>3803</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <v>3883</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <v>3870</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>9973</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>3859</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <v>3854</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <v>3791</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <v>3876</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <v>3871</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
+        <v>3690</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <v>3744</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <v>3883</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
+        <v>3688</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <v>3844</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>3813</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>9973</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <v>3809</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <v>3710</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <v>3690</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>3604</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <v>3813</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>9973</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
+        <v>3803</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <v>3840</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <v>3868</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <v>3868</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
+        <v>3830</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <v>3744</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
+        <v>3690</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
+        <v>3609</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
+        <v>3823</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
+        <v>3853</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>9970</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
+        <v>3807</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>9970</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
+        <v>3711</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
+        <v>3883</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
+        <v>3819</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>9970</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
+        <v>3812</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>9973</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <v>3813</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>9973</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
+        <v>3813</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>9973</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
+        <v>3804</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
+        <v>3871</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
+        <v>3874</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
+        <v>3756</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
+        <v>3826</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
+        <v>3840</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
+        <v>3883</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
+        <v>3883</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>9968</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
+        <v>3818</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
+        <v>3724</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
+        <v>3772</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
+        <v>3727</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
+        <v>1234</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
+        <v>3412</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>9966</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B259" xr:uid="{C0649DA5-E91A-4B5B-ABDD-B3335EBE8B6D}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/frontend/public/MASTER_DATA_ADAIKAL.xlsx
+++ b/frontend/public/MASTER_DATA_ADAIKAL.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4ECDA7-F52A-4564-A180-CEC09AED4401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE22150-5ACA-4693-AC05-0CE227E95833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LF_MASTER" sheetId="4" r:id="rId1"/>
     <sheet name="AMX_MASTER" sheetId="2" r:id="rId2"/>
     <sheet name="SWITCH_MASTER" sheetId="3" r:id="rId3"/>
-    <sheet name="M_and_C" sheetId="5" r:id="rId4"/>
+    <sheet name="OGL_MASTER" sheetId="6" r:id="rId4"/>
+    <sheet name="M_and_C" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AMX_MASTER!$A$1:$E$2542</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LF_MASTER!$A$1:$E$578</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">M_and_C!$A$1:$B$259</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">M_and_C!$A$1:$B$259</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">OGL_MASTER!$A$1:$C$189</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SWITCH_MASTER!$A$1:$E$187</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16937" uniqueCount="10046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17314" uniqueCount="10236">
   <si>
     <t>Fleet Number</t>
   </si>
@@ -30162,13 +30164,583 @@
   </si>
   <si>
     <t>Bellari JSW Depot</t>
+  </si>
+  <si>
+    <t>TG10T2100</t>
+  </si>
+  <si>
+    <t>TG10T2101</t>
+  </si>
+  <si>
+    <t>TG10T2102</t>
+  </si>
+  <si>
+    <t>TG10T2103</t>
+  </si>
+  <si>
+    <t>TG10T2104</t>
+  </si>
+  <si>
+    <t>TG10T2105</t>
+  </si>
+  <si>
+    <t>TG10T2106</t>
+  </si>
+  <si>
+    <t>TG10T2107</t>
+  </si>
+  <si>
+    <t>TG10T2108</t>
+  </si>
+  <si>
+    <t>TG10T2109</t>
+  </si>
+  <si>
+    <t>TG10T2110</t>
+  </si>
+  <si>
+    <t>TG10T2111</t>
+  </si>
+  <si>
+    <t>TG10T2112</t>
+  </si>
+  <si>
+    <t>TG10T2113</t>
+  </si>
+  <si>
+    <t>TG10T2114</t>
+  </si>
+  <si>
+    <t>TG10T2115</t>
+  </si>
+  <si>
+    <t>TG10T2116</t>
+  </si>
+  <si>
+    <t>TG10T2117</t>
+  </si>
+  <si>
+    <t>TG10T2118</t>
+  </si>
+  <si>
+    <t>TG10T2119</t>
+  </si>
+  <si>
+    <t>TG10T2120</t>
+  </si>
+  <si>
+    <t>TG10T2121</t>
+  </si>
+  <si>
+    <t>TG10T2122</t>
+  </si>
+  <si>
+    <t>TG10T2123</t>
+  </si>
+  <si>
+    <t>TG10T2124</t>
+  </si>
+  <si>
+    <t>TG10T2125</t>
+  </si>
+  <si>
+    <t>TG10T2126</t>
+  </si>
+  <si>
+    <t>TG10T2127</t>
+  </si>
+  <si>
+    <t>TG10T2128</t>
+  </si>
+  <si>
+    <t>TG10T2129</t>
+  </si>
+  <si>
+    <t>TG10T2130</t>
+  </si>
+  <si>
+    <t>TG10T2131</t>
+  </si>
+  <si>
+    <t>TG10T2132</t>
+  </si>
+  <si>
+    <t>TG10T2133</t>
+  </si>
+  <si>
+    <t>TG10T2134</t>
+  </si>
+  <si>
+    <t>TG10T2135</t>
+  </si>
+  <si>
+    <t>TG10T2136</t>
+  </si>
+  <si>
+    <t>TG10T2137</t>
+  </si>
+  <si>
+    <t>TG10T2138</t>
+  </si>
+  <si>
+    <t>TG10T2139</t>
+  </si>
+  <si>
+    <t>TG10T2140</t>
+  </si>
+  <si>
+    <t>TG10T2141</t>
+  </si>
+  <si>
+    <t>TG10T2142</t>
+  </si>
+  <si>
+    <t>TG10T2143</t>
+  </si>
+  <si>
+    <t>TG10T2144</t>
+  </si>
+  <si>
+    <t>T1402</t>
+  </si>
+  <si>
+    <t>T1403</t>
+  </si>
+  <si>
+    <t>T1404</t>
+  </si>
+  <si>
+    <t>T1405</t>
+  </si>
+  <si>
+    <t>T1406</t>
+  </si>
+  <si>
+    <t>T1407</t>
+  </si>
+  <si>
+    <t>T1408</t>
+  </si>
+  <si>
+    <t>T1409</t>
+  </si>
+  <si>
+    <t>T1410</t>
+  </si>
+  <si>
+    <t>T1411</t>
+  </si>
+  <si>
+    <t>T1412</t>
+  </si>
+  <si>
+    <t>T1414</t>
+  </si>
+  <si>
+    <t>T1442</t>
+  </si>
+  <si>
+    <t>T1443</t>
+  </si>
+  <si>
+    <t>T1444</t>
+  </si>
+  <si>
+    <t>T1446</t>
+  </si>
+  <si>
+    <t>T1447</t>
+  </si>
+  <si>
+    <t>T1448</t>
+  </si>
+  <si>
+    <t>T1450</t>
+  </si>
+  <si>
+    <t>T1451</t>
+  </si>
+  <si>
+    <t>T1466</t>
+  </si>
+  <si>
+    <t>T1468</t>
+  </si>
+  <si>
+    <t>T1469</t>
+  </si>
+  <si>
+    <t>T1470</t>
+  </si>
+  <si>
+    <t>T1471</t>
+  </si>
+  <si>
+    <t>T1472</t>
+  </si>
+  <si>
+    <t>T1483</t>
+  </si>
+  <si>
+    <t>T1484</t>
+  </si>
+  <si>
+    <t>T1486</t>
+  </si>
+  <si>
+    <t>T1487</t>
+  </si>
+  <si>
+    <t>T1488</t>
+  </si>
+  <si>
+    <t>T1489</t>
+  </si>
+  <si>
+    <t>T1490</t>
+  </si>
+  <si>
+    <t>T1491</t>
+  </si>
+  <si>
+    <t>T1501</t>
+  </si>
+  <si>
+    <t>T1502</t>
+  </si>
+  <si>
+    <t>T1503</t>
+  </si>
+  <si>
+    <t>T1504</t>
+  </si>
+  <si>
+    <t>T1506</t>
+  </si>
+  <si>
+    <t>T1507</t>
+  </si>
+  <si>
+    <t>T1508</t>
+  </si>
+  <si>
+    <t>T1511</t>
+  </si>
+  <si>
+    <t>T1512</t>
+  </si>
+  <si>
+    <t>T1537</t>
+  </si>
+  <si>
+    <t>T1538</t>
+  </si>
+  <si>
+    <t>T1539</t>
+  </si>
+  <si>
+    <t>T1540</t>
+  </si>
+  <si>
+    <t>T1541</t>
+  </si>
+  <si>
+    <t>T1542</t>
+  </si>
+  <si>
+    <t>T1543</t>
+  </si>
+  <si>
+    <t>T1544</t>
+  </si>
+  <si>
+    <t>T1545</t>
+  </si>
+  <si>
+    <t>T1546</t>
+  </si>
+  <si>
+    <t>T1547</t>
+  </si>
+  <si>
+    <t>T1548</t>
+  </si>
+  <si>
+    <t>T1556</t>
+  </si>
+  <si>
+    <t>T1557</t>
+  </si>
+  <si>
+    <t>T1558</t>
+  </si>
+  <si>
+    <t>T1559</t>
+  </si>
+  <si>
+    <t>T1560</t>
+  </si>
+  <si>
+    <t>T1561</t>
+  </si>
+  <si>
+    <t>T1562</t>
+  </si>
+  <si>
+    <t>T1569</t>
+  </si>
+  <si>
+    <t>T1570</t>
+  </si>
+  <si>
+    <t>T1571</t>
+  </si>
+  <si>
+    <t>T1572</t>
+  </si>
+  <si>
+    <t>T1573</t>
+  </si>
+  <si>
+    <t>T1585</t>
+  </si>
+  <si>
+    <t>T1612</t>
+  </si>
+  <si>
+    <t>T-1492(NON.AC)</t>
+  </si>
+  <si>
+    <t>T-1500(NON.AC)</t>
+  </si>
+  <si>
+    <t>T-1505(NON.AC)</t>
+  </si>
+  <si>
+    <t>UD0977(NON.AC)</t>
+  </si>
+  <si>
+    <t>UD1801(A.C)</t>
+  </si>
+  <si>
+    <t>UD1802(A.C)</t>
+  </si>
+  <si>
+    <t>UD1803(A.C)</t>
+  </si>
+  <si>
+    <t>UD1804(A.C)</t>
+  </si>
+  <si>
+    <t>UD1805(A.C)</t>
+  </si>
+  <si>
+    <t>UD1806(A.C)</t>
+  </si>
+  <si>
+    <t>UD1807(A.C)</t>
+  </si>
+  <si>
+    <t>UD1808(A.C)</t>
+  </si>
+  <si>
+    <t>UD1810(A.C)</t>
+  </si>
+  <si>
+    <t>UD1811(A.C)</t>
+  </si>
+  <si>
+    <t>UD1812(A.C)</t>
+  </si>
+  <si>
+    <t>UD1813(A.C)</t>
+  </si>
+  <si>
+    <t>UD1814(A.C)</t>
+  </si>
+  <si>
+    <t>UD3293(NON.AC)</t>
+  </si>
+  <si>
+    <t>UD3294(NON.AC)</t>
+  </si>
+  <si>
+    <t>UD3295(NON.AC)</t>
+  </si>
+  <si>
+    <t>UD3296(NON.AC)</t>
+  </si>
+  <si>
+    <t>UD3297(NON.AC)</t>
+  </si>
+  <si>
+    <t>UD3298(NON.AC)</t>
+  </si>
+  <si>
+    <t>UD3300(NON.AC)</t>
+  </si>
+  <si>
+    <t>UD3301(NON.AC)</t>
+  </si>
+  <si>
+    <t>UD3302(NON.AC)</t>
+  </si>
+  <si>
+    <t>UD3304(NON.AC)</t>
+  </si>
+  <si>
+    <t>UD3305(NON.AC)</t>
+  </si>
+  <si>
+    <t>UD3306(NON.AC)</t>
+  </si>
+  <si>
+    <t>T0197</t>
+  </si>
+  <si>
+    <t>T0198</t>
+  </si>
+  <si>
+    <t>T0603</t>
+  </si>
+  <si>
+    <t>T0638</t>
+  </si>
+  <si>
+    <t>T0639</t>
+  </si>
+  <si>
+    <t>T0640</t>
+  </si>
+  <si>
+    <t>T0665</t>
+  </si>
+  <si>
+    <t>T0667</t>
+  </si>
+  <si>
+    <t>T0668</t>
+  </si>
+  <si>
+    <t>T0686</t>
+  </si>
+  <si>
+    <t>T0962</t>
+  </si>
+  <si>
+    <t>T0963</t>
+  </si>
+  <si>
+    <t>T0964</t>
+  </si>
+  <si>
+    <t>T0965</t>
+  </si>
+  <si>
+    <t>T0966</t>
+  </si>
+  <si>
+    <t>UD1796</t>
+  </si>
+  <si>
+    <t>UD1797</t>
+  </si>
+  <si>
+    <t>UD1798</t>
+  </si>
+  <si>
+    <t>UD1799</t>
+  </si>
+  <si>
+    <t>UD1801</t>
+  </si>
+  <si>
+    <t>UD1804</t>
+  </si>
+  <si>
+    <t>UD1807</t>
+  </si>
+  <si>
+    <t>UD1811</t>
+  </si>
+  <si>
+    <t>UD1814</t>
+  </si>
+  <si>
+    <t>UD1815</t>
+  </si>
+  <si>
+    <t>UD1816</t>
+  </si>
+  <si>
+    <t>UD1817</t>
+  </si>
+  <si>
+    <t>UD1820</t>
+  </si>
+  <si>
+    <t>UD1821</t>
+  </si>
+  <si>
+    <t>UD1822</t>
+  </si>
+  <si>
+    <t>UD1876</t>
+  </si>
+  <si>
+    <t>UD1877</t>
+  </si>
+  <si>
+    <t>UD3307</t>
+  </si>
+  <si>
+    <t>UD3308</t>
+  </si>
+  <si>
+    <t>UD3309</t>
+  </si>
+  <si>
+    <t>UD3310</t>
+  </si>
+  <si>
+    <t>UD3311</t>
+  </si>
+  <si>
+    <t>UD3312</t>
+  </si>
+  <si>
+    <t>UD3313</t>
+  </si>
+  <si>
+    <t>UD3314</t>
+  </si>
+  <si>
+    <t>UD3315</t>
+  </si>
+  <si>
+    <t>UD3326</t>
+  </si>
+  <si>
+    <t>UD3356</t>
+  </si>
+  <si>
+    <t>HAYAT NAGAR</t>
+  </si>
+  <si>
+    <t>HCU</t>
+  </si>
+  <si>
+    <t>CANTONMENT</t>
+  </si>
+  <si>
+    <t>MIYAPUR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30182,6 +30754,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -30224,7 +30801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -30235,6 +30812,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -83685,8 +84271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17602306-DFEA-4E19-B11D-2EAE3E53EA4C}">
   <dimension ref="A1:E258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="D190" sqref="D190"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -87456,6 +88042,1542 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BBA845-233C-4DF1-AA8A-EC2F79F74BAB}">
+  <dimension ref="A1:C189"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>10046</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>10047</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>10048</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>10049</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>10050</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>10051</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>10052</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>10053</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>10054</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>10055</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>10056</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>10057</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>10058</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>10059</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>10060</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>10061</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>10062</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>10063</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>10064</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>10065</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>10066</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>10067</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>10068</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>10069</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>10070</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>10071</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>10072</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>10073</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>10074</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>10075</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>10076</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>10077</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>10078</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>10079</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>10080</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>10081</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>10082</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>10083</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>10084</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>10085</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>10086</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>10087</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>10088</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>10089</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>10090</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>10091</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>10092</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>10093</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>10094</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>10095</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>10096</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>10097</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>10098</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>10099</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>10100</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>10101</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>10102</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>10103</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>10104</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>10105</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>10106</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>10107</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>10108</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>10109</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>10110</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>10111</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>10112</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>10113</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>10114</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>10115</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>10116</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>10117</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>10118</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>10119</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>10120</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>10121</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>10122</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>10123</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>10124</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>10125</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>10126</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>10127</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>10128</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>10129</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>10130</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>10131</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>10132</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>10133</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>10134</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>10135</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>10136</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>10137</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>10138</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>10139</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>10140</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>10141</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>10142</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>10143</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>10144</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>10145</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>10146</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>10147</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>10148</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>10149</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>10150</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>10151</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>10152</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>10153</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>10154</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>10155</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>10156</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>10157</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>10158</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>10159</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="5">
+        <v>598</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>10160</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>10161</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>10162</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>10163</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>10164</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>10165</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>10166</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>10167</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>10168</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>10169</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>10170</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>10171</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>10172</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>10173</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>10174</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>10175</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>10176</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>10177</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>10178</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>10179</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>10180</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>10181</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>10182</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>10183</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>10184</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>10185</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>10186</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>10187</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>10188</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="5">
+        <v>1236</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>10189</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>10190</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>10191</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>10192</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>10193</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>10194</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>10195</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>10196</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>10197</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
+        <v>10198</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
+        <v>10199</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
+        <v>10200</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
+        <v>10201</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
+        <v>10202</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>10203</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
+        <v>10204</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
+        <v>10205</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
+        <v>10206</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>10207</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>10208</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>10209</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
+        <v>10210</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>10211</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
+        <v>10212</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
+        <v>10213</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
+        <v>10214</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
+        <v>10215</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
+        <v>10216</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
+        <v>10217</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
+        <v>10218</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>10219</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>10220</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
+        <v>10221</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
+        <v>10222</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
+        <v>10223</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
+        <v>10224</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
+        <v>10225</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
+        <v>10226</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
+        <v>10227</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
+        <v>10228</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>10229</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
+        <v>10230</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
+        <v>10231</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>10235</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C189" xr:uid="{C1BBA845-233C-4DF1-AA8A-EC2F79F74BAB}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0649DA5-E91A-4B5B-ABDD-B3335EBE8B6D}">
   <dimension ref="A1:B259"/>
   <sheetViews>
